--- a/Lectures and Assignment 2/problem3.xlsx
+++ b/Lectures and Assignment 2/problem3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47F251-6CEF-4937-88D9-5C12D13C1386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C1FB8-0DFD-4565-9AD8-1636B81C1AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12624" yWindow="372" windowWidth="11964" windowHeight="12300" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 3" sheetId="15" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -532,52 +532,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -588,72 +552,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -675,6 +592,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,8 +643,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +706,8 @@
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8715376" cy="17756504"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1251,7 +1243,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1264,7 +1256,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1278,7 +1270,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1356,7 +1348,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1368,7 +1360,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1380,7 +1372,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1392,35 +1384,11 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>∈{</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>1,…,20</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>}</m:t>
+                    <m:t>∈{1,…,20}</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -1624,7 +1592,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1636,7 +1604,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1651,7 +1619,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1663,7 +1631,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1795,7 +1763,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1822,23 +1790,11 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑖</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>𝑘</m:t>
+                                <m:t>𝑖𝑘</m:t>
                               </m:r>
                             </m:sub>
                           </m:sSub>
@@ -1850,7 +1806,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1877,23 +1833,11 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑖</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>𝑘</m:t>
+                                <m:t>𝑖𝑘</m:t>
                               </m:r>
                             </m:sub>
                           </m:sSub>
@@ -1922,7 +1866,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1947,23 +1891,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>4</m:t>
+                        <m:t>=4</m:t>
                       </m:r>
                     </m:sub>
                     <m:sup>
@@ -1990,7 +1922,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2015,23 +1947,11 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>=</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
                               <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>8</m:t>
+                            <m:t>=8</m:t>
                           </m:r>
                         </m:sub>
                         <m:sup>
@@ -2057,7 +1977,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2070,7 +1990,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2100,7 +2020,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2113,7 +2033,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2127,23 +2047,11 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑘</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>𝑗</m:t>
+                                <m:t>𝑘𝑗</m:t>
                               </m:r>
                             </m:sub>
                           </m:sSub>
@@ -2216,7 +2124,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2232,7 +2140,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2244,7 +2152,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2258,7 +2166,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2275,7 +2183,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2291,7 +2199,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2303,7 +2211,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2317,7 +2225,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2333,7 +2241,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2346,7 +2254,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2360,7 +2268,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2376,7 +2284,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2389,7 +2297,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2403,7 +2311,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2440,7 +2348,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2453,7 +2361,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2465,7 +2373,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2479,7 +2387,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2496,7 +2404,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2509,7 +2417,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2521,7 +2429,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2535,7 +2443,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2551,7 +2459,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2564,7 +2472,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2578,7 +2486,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2594,7 +2502,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2607,7 +2515,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2621,7 +2529,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2820,7 +2728,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2833,7 +2741,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2875,7 +2783,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2888,7 +2796,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2930,7 +2838,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2943,7 +2851,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2985,7 +2893,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2998,7 +2906,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3012,23 +2920,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>7</m:t>
+                        <m:t>17</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -3079,7 +2975,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3092,7 +2988,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3110,19 +3006,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>4</m:t>
+                        <m:t>24</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -3132,7 +3016,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3146,7 +3030,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3159,7 +3043,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3177,19 +3061,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>5</m:t>
+                        <m:t>25</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -3199,7 +3071,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3213,7 +3085,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3226,7 +3098,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3244,19 +3116,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>6</m:t>
+                        <m:t>26</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -3266,7 +3126,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3280,7 +3140,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3293,933 +3153,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>7</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≤</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>2100</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Belgium Mill: </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>3</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>4</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>+</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>3</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>5</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>+</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>3</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>6</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>+</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>3</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>7</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≤</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>42</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>00</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-US">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t>- </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Demand Constraints (for each customer area):</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>For each customer area</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> =</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>8 to 20,   </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:nary>
-                    <m:naryPr>
-                      <m:chr m:val="∑"/>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:naryPr>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑘</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>4</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>7</m:t>
-                      </m:r>
-                    </m:sup>
-                    <m:e>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑥</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑘</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑗</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:e>
-                  </m:nary>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>​</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Demand of customer </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Warehouse Capacity Constraints:</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Finland mill to Finland warehouse Rail Line: </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>14</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≤900</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>UK Warehouse Sheeting Capacity: </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>7</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>+</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4247,7 +3181,89 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≤2100</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Belgium Mill: </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>34</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -4261,7 +3277,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4274,7 +3290,117 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>35</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>36</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4302,12 +3428,230 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>≤</m:t>
+                    <m:t>≤4200</m:t>
                   </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>- </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Demand Constraints (for each customer area):</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>For each customer area</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> =</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>8 to 20,   </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑘</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=4</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>7</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑘𝑗</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:e>
+                  </m:nary>
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1">
                       <a:solidFill>
@@ -4318,7 +3662,379 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>5000</m:t>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Demand of customer </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Warehouse Capacity Constraints:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Finland mill to Finland warehouse Rail Line: </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>14</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≤900</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>UK Warehouse Sheeting Capacity: </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>17</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>27</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>37</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≤5000</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -4510,7 +4226,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4523,7 +4239,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4535,23 +4251,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>1</m:t>
+                        <m:t>=1</m:t>
                       </m:r>
                     </m:sub>
                     <m:sup>
@@ -4577,7 +4281,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -4590,7 +4294,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -4604,23 +4308,11 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑖</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
                               <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>𝑘</m:t>
+                            <m:t>𝑖𝑘</m:t>
                           </m:r>
                         </m:sub>
                       </m:sSub>
@@ -4632,7 +4324,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -4647,7 +4339,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4672,23 +4364,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>8</m:t>
+                        <m:t>=8</m:t>
                       </m:r>
                     </m:sub>
                     <m:sup>
@@ -4714,7 +4394,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -4727,7 +4407,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -4745,19 +4425,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>𝑘</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑗</m:t>
+                            <m:t>𝑘𝑗</m:t>
                           </m:r>
                         </m:sub>
                       </m:sSub>
@@ -4824,7 +4492,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4837,7 +4505,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4851,23 +4519,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝑘</m:t>
+                        <m:t>𝑖𝑘</m:t>
                       </m:r>
                     </m:sub>
                   </m:sSub>
@@ -4891,7 +4547,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4904,7 +4560,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4932,7 +4588,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5149,7 +4805,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -13054,7 +12710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
@@ -13226,11 +12882,6 @@
       <c r="AI19"/>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
@@ -13242,18 +12893,13 @@
       <c r="AI20" s="13"/>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="33"/>
-      <c r="X21" s="34" t="s">
+      <c r="V21" s="21"/>
+      <c r="X21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="33"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="21"/>
       <c r="AB21" s="4"/>
       <c r="AE21" s="13"/>
       <c r="AF21" s="4"/>
@@ -13262,24 +12908,24 @@
       <c r="AI21" s="13"/>
     </row>
     <row r="22" spans="2:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="56" t="s">
+      <c r="R22" s="42"/>
+      <c r="S22" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="X22" s="61" t="s">
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="X22" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="20" t="s">
+      <c r="Y22" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="22"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="62"/>
       <c r="AB22" s="4"/>
       <c r="AE22" s="13"/>
       <c r="AF22" s="4"/>
@@ -13288,28 +12934,28 @@
       <c r="AI22" s="13"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="25" t="s">
+      <c r="Q23" s="43"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="25" t="s">
+      <c r="U23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="V23" s="25" t="s">
+      <c r="V23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="25" t="s">
+      <c r="X23" s="63"/>
+      <c r="Y23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Z23" s="25" t="s">
+      <c r="Z23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AA23" s="25" t="s">
+      <c r="AA23" s="17" t="s">
         <v>8</v>
       </c>
       <c r="AB23" s="4"/>
@@ -13320,32 +12966,32 @@
       <c r="AI23" s="13"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q24" s="26" t="s">
+      <c r="Q24" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S24" s="63">
+      <c r="S24" s="32">
         <v>53</v>
       </c>
-      <c r="T24" s="63">
+      <c r="T24" s="32">
         <v>95</v>
       </c>
-      <c r="U24" s="63">
+      <c r="U24" s="32">
         <v>136</v>
       </c>
-      <c r="V24" s="63">
+      <c r="V24" s="32">
         <v>160</v>
       </c>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="27">
+      <c r="X24" s="63"/>
+      <c r="Y24" s="18">
         <v>9900</v>
       </c>
-      <c r="Z24" s="27">
+      <c r="Z24" s="18">
         <v>2100</v>
       </c>
-      <c r="AA24" s="27">
+      <c r="AA24" s="18">
         <v>4200</v>
       </c>
       <c r="AB24" s="4"/>
@@ -13354,26 +13000,26 @@
       <c r="AI24"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q25" s="28"/>
-      <c r="R25" s="25" t="s">
+      <c r="Q25" s="47"/>
+      <c r="R25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S25" s="63">
+      <c r="S25" s="32">
         <v>60</v>
       </c>
-      <c r="T25" s="63">
+      <c r="T25" s="32">
         <v>120</v>
       </c>
-      <c r="U25" s="63">
+      <c r="U25" s="32">
         <v>132</v>
       </c>
-      <c r="V25" s="63">
+      <c r="V25" s="32">
         <v>140</v>
       </c>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
       <c r="AB25" s="4"/>
       <c r="AE25" s="13"/>
       <c r="AF25" s="4"/>
@@ -13382,26 +13028,26 @@
       <c r="AI25" s="13"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q26" s="29"/>
-      <c r="R26" s="25" t="s">
+      <c r="Q26" s="48"/>
+      <c r="R26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="S26" s="63">
+      <c r="S26" s="32">
         <v>210</v>
       </c>
-      <c r="T26" s="63">
+      <c r="T26" s="32">
         <v>190</v>
       </c>
-      <c r="U26" s="63">
+      <c r="U26" s="32">
         <v>89</v>
       </c>
-      <c r="V26" s="63">
+      <c r="V26" s="32">
         <v>71</v>
       </c>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
       <c r="AB26" s="4"/>
       <c r="AE26" s="13"/>
       <c r="AF26" s="4"/>
@@ -13421,16 +13067,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
       <c r="AB27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27"/>
@@ -13449,18 +13090,18 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="36" t="s">
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
       <c r="AB28" s="4"/>
       <c r="AG28"/>
       <c r="AH28"/>
@@ -13478,20 +13119,20 @@
       <c r="J29" s="6"/>
       <c r="K29" s="15"/>
       <c r="L29" s="6"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="36" t="s">
+      <c r="Q29" s="21"/>
+      <c r="R29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="37" t="s">
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="39"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="67"/>
       <c r="AB29" s="4"/>
       <c r="AG29"/>
       <c r="AH29"/>
@@ -13499,25 +13140,25 @@
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
-      <c r="Q30" s="40" t="s">
+      <c r="Q30" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="R30" s="41"/>
-      <c r="S30" s="42" t="s">
+      <c r="R30" s="50"/>
+      <c r="S30" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="43" t="s">
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="Y30" s="44" t="str">
+      <c r="Y30" s="26" t="str">
         <f>R32</f>
         <v>8. Finland</v>
       </c>
-      <c r="Z30" s="30">
+      <c r="Z30" s="19">
         <v>650</v>
       </c>
       <c r="AB30" s="4"/>
@@ -13527,28 +13168,28 @@
     </row>
     <row r="31" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="47">
+      <c r="Q31" s="51"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="25">
         <f t="array" ref="S31:V31">TRANSPOSE(R27:R27)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="47">
+      <c r="T31" s="25">
         <v>0</v>
       </c>
-      <c r="U31" s="47">
+      <c r="U31" s="25">
         <v>0</v>
       </c>
-      <c r="V31" s="47">
+      <c r="V31" s="25">
         <v>0</v>
       </c>
-      <c r="W31" s="33"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="44" t="str">
+      <c r="W31" s="21"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="26" t="str">
         <f t="shared" ref="Y31:Y42" si="0">R33</f>
         <v>9. Sweden</v>
       </c>
-      <c r="Z31" s="25">
+      <c r="Z31" s="17">
         <v>260</v>
       </c>
       <c r="AB31" s="4"/>
@@ -13558,31 +13199,31 @@
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
-      <c r="Q32" s="48" t="s">
+      <c r="Q32" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="44" t="s">
+      <c r="R32" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S32" s="50">
+      <c r="S32" s="27">
         <v>100</v>
       </c>
-      <c r="T32" s="50">
+      <c r="T32" s="27">
         <v>200</v>
       </c>
-      <c r="U32" s="50">
+      <c r="U32" s="27">
         <v>280</v>
       </c>
-      <c r="V32" s="50">
+      <c r="V32" s="27">
         <v>320</v>
       </c>
-      <c r="W32" s="33"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="44" t="str">
+      <c r="W32" s="21"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="26" t="str">
         <f t="shared" si="0"/>
         <v>10. Norway</v>
       </c>
-      <c r="Z32" s="25">
+      <c r="Z32" s="17">
         <v>650</v>
       </c>
       <c r="AB32" s="4"/>
@@ -13592,29 +13233,29 @@
     </row>
     <row r="33" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="47" t="s">
+      <c r="Q33" s="58"/>
+      <c r="R33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="50">
+      <c r="S33" s="27">
         <v>120</v>
       </c>
-      <c r="T33" s="50">
+      <c r="T33" s="27">
         <v>240</v>
       </c>
-      <c r="U33" s="50">
+      <c r="U33" s="27">
         <v>260</v>
       </c>
-      <c r="V33" s="50">
+      <c r="V33" s="27">
         <v>280</v>
       </c>
-      <c r="W33" s="33"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="44" t="str">
+      <c r="W33" s="21"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="26" t="str">
         <f t="shared" si="0"/>
         <v>11. Iceland</v>
       </c>
-      <c r="Z33" s="25">
+      <c r="Z33" s="17">
         <v>130</v>
       </c>
       <c r="AB33" s="4"/>
@@ -13624,29 +13265,29 @@
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="47" t="s">
+      <c r="Q34" s="58"/>
+      <c r="R34" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S34" s="50">
+      <c r="S34" s="27">
         <v>150</v>
       </c>
-      <c r="T34" s="50">
+      <c r="T34" s="27">
         <v>280</v>
       </c>
-      <c r="U34" s="50">
+      <c r="U34" s="27">
         <v>320</v>
       </c>
-      <c r="V34" s="50">
+      <c r="V34" s="27">
         <v>200</v>
       </c>
-      <c r="W34" s="33"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="44" t="str">
+      <c r="W34" s="21"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="26" t="str">
         <f t="shared" si="0"/>
         <v>12. Denmark</v>
       </c>
-      <c r="Z34" s="25">
+      <c r="Z34" s="17">
         <v>780</v>
       </c>
       <c r="AB34" s="16"/>
@@ -13657,29 +13298,29 @@
       <c r="AI34"/>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q35" s="43"/>
-      <c r="R35" s="47" t="s">
+      <c r="Q35" s="58"/>
+      <c r="R35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="S35" s="50">
+      <c r="S35" s="27">
         <v>160</v>
       </c>
-      <c r="T35" s="50">
+      <c r="T35" s="27">
         <v>310</v>
       </c>
-      <c r="U35" s="50">
+      <c r="U35" s="27">
         <v>400</v>
       </c>
-      <c r="V35" s="50">
+      <c r="V35" s="27">
         <v>130</v>
       </c>
-      <c r="W35" s="33"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="44" t="str">
+      <c r="W35" s="21"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="26" t="str">
         <f t="shared" si="0"/>
         <v>13. UK</v>
       </c>
-      <c r="Z35" s="25">
+      <c r="Z35" s="17">
         <v>2500</v>
       </c>
       <c r="AB35" s="16"/>
@@ -13690,29 +13331,29 @@
       <c r="AI35"/>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q36" s="43"/>
-      <c r="R36" s="47" t="s">
+      <c r="Q36" s="58"/>
+      <c r="R36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="50">
+      <c r="S36" s="27">
         <v>300</v>
       </c>
-      <c r="T36" s="50">
+      <c r="T36" s="27">
         <v>280</v>
       </c>
-      <c r="U36" s="50">
+      <c r="U36" s="27">
         <v>140</v>
       </c>
-      <c r="V36" s="50">
+      <c r="V36" s="27">
         <v>130</v>
       </c>
-      <c r="W36" s="33"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="44" t="str">
+      <c r="W36" s="21"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="26" t="str">
         <f t="shared" si="0"/>
         <v>14. Ireland</v>
       </c>
-      <c r="Z36" s="25">
+      <c r="Z36" s="17">
         <v>910</v>
       </c>
       <c r="AB36" s="16"/>
@@ -13723,29 +13364,29 @@
       <c r="AI36"/>
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q37" s="43"/>
-      <c r="R37" s="47" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="S37" s="50">
+      <c r="S37" s="27">
         <v>310</v>
       </c>
-      <c r="T37" s="50">
+      <c r="T37" s="27">
         <v>400</v>
       </c>
-      <c r="U37" s="50">
+      <c r="U37" s="27">
         <v>319</v>
       </c>
-      <c r="V37" s="50">
+      <c r="V37" s="27">
         <v>70</v>
       </c>
-      <c r="W37" s="33"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="44" t="str">
+      <c r="W37" s="21"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="26" t="str">
         <f t="shared" si="0"/>
         <v>15. France</v>
       </c>
-      <c r="Z37" s="25">
+      <c r="Z37" s="17">
         <v>3120</v>
       </c>
       <c r="AB37" s="16"/>
@@ -13756,29 +13397,29 @@
       <c r="AI37"/>
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q38" s="43"/>
-      <c r="R38" s="47" t="s">
+      <c r="Q38" s="58"/>
+      <c r="R38" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S38" s="50">
+      <c r="S38" s="27">
         <v>340</v>
       </c>
-      <c r="T38" s="50">
+      <c r="T38" s="27">
         <v>440</v>
       </c>
-      <c r="U38" s="50">
+      <c r="U38" s="27">
         <v>290</v>
       </c>
-      <c r="V38" s="50">
+      <c r="V38" s="27">
         <v>100</v>
       </c>
-      <c r="W38" s="33"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="44" t="str">
+      <c r="W38" s="21"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="26" t="str">
         <f t="shared" si="0"/>
         <v>16. Benelux</v>
       </c>
-      <c r="Z38" s="25">
+      <c r="Z38" s="17">
         <v>910</v>
       </c>
       <c r="AB38" s="16"/>
@@ -13789,29 +13430,29 @@
       <c r="AI38"/>
     </row>
     <row r="39" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q39" s="43"/>
-      <c r="R39" s="47" t="s">
+      <c r="Q39" s="58"/>
+      <c r="R39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="S39" s="50">
+      <c r="S39" s="27">
         <v>490</v>
       </c>
-      <c r="T39" s="50">
+      <c r="T39" s="27">
         <v>410</v>
       </c>
-      <c r="U39" s="50">
+      <c r="U39" s="27">
         <v>240</v>
       </c>
-      <c r="V39" s="50">
+      <c r="V39" s="27">
         <v>90</v>
       </c>
-      <c r="W39" s="33"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="44" t="str">
+      <c r="W39" s="21"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="26" t="str">
         <f t="shared" si="0"/>
         <v>17. Germany</v>
       </c>
-      <c r="Z39" s="25">
+      <c r="Z39" s="17">
         <v>3640</v>
       </c>
       <c r="AB39" s="4"/>
@@ -13820,29 +13461,29 @@
       <c r="AI39"/>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q40" s="43"/>
-      <c r="R40" s="47" t="s">
+      <c r="Q40" s="58"/>
+      <c r="R40" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="S40" s="50">
+      <c r="S40" s="27">
         <v>430</v>
       </c>
-      <c r="T40" s="50">
+      <c r="T40" s="27">
         <v>380</v>
       </c>
-      <c r="U40" s="50">
+      <c r="U40" s="27">
         <v>230</v>
       </c>
-      <c r="V40" s="50">
+      <c r="V40" s="27">
         <v>100</v>
       </c>
-      <c r="W40" s="33"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="44" t="str">
+      <c r="W40" s="21"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="26" t="str">
         <f t="shared" si="0"/>
         <v>18. Poland</v>
       </c>
-      <c r="Z40" s="25">
+      <c r="Z40" s="17">
         <v>1040</v>
       </c>
       <c r="AB40" s="4"/>
@@ -13851,29 +13492,29 @@
       <c r="AI40"/>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q41" s="43"/>
-      <c r="R41" s="47" t="s">
+      <c r="Q41" s="58"/>
+      <c r="R41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S41" s="50">
+      <c r="S41" s="27">
         <v>360</v>
       </c>
-      <c r="T41" s="50">
+      <c r="T41" s="27">
         <v>190</v>
       </c>
-      <c r="U41" s="50">
+      <c r="U41" s="27">
         <v>80</v>
       </c>
-      <c r="V41" s="50">
+      <c r="V41" s="27">
         <v>190</v>
       </c>
-      <c r="W41" s="33"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="44" t="str">
+      <c r="W41" s="21"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="26" t="str">
         <f t="shared" si="0"/>
         <v>19. Czech</v>
       </c>
-      <c r="Z41" s="25">
+      <c r="Z41" s="17">
         <v>650</v>
       </c>
       <c r="AB41" s="4"/>
@@ -13882,29 +13523,29 @@
       <c r="AI41"/>
     </row>
     <row r="42" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q42" s="43"/>
-      <c r="R42" s="47" t="s">
+      <c r="Q42" s="58"/>
+      <c r="R42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S42" s="50">
+      <c r="S42" s="27">
         <v>280</v>
       </c>
-      <c r="T42" s="50">
+      <c r="T42" s="27">
         <v>80</v>
       </c>
-      <c r="U42" s="50">
+      <c r="U42" s="27">
         <v>60</v>
       </c>
-      <c r="V42" s="50">
+      <c r="V42" s="27">
         <v>370</v>
       </c>
-      <c r="W42" s="33"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="44" t="str">
+      <c r="W42" s="21"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="26" t="str">
         <f t="shared" si="0"/>
         <v>20. Baltic</v>
       </c>
-      <c r="Z42" s="25">
+      <c r="Z42" s="17">
         <v>780</v>
       </c>
       <c r="AG42"/>
@@ -13912,294 +13553,293 @@
       <c r="AI42"/>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q43" s="43"/>
-      <c r="R43" s="47" t="s">
+      <c r="Q43" s="58"/>
+      <c r="R43" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="S43" s="50">
+      <c r="S43" s="27">
         <v>350</v>
       </c>
-      <c r="T43" s="50">
+      <c r="T43" s="27">
         <v>150</v>
       </c>
-      <c r="U43" s="50">
+      <c r="U43" s="27">
         <v>60</v>
       </c>
-      <c r="V43" s="50">
+      <c r="V43" s="27">
         <v>320</v>
       </c>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
     </row>
     <row r="44" spans="2:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q44" s="49"/>
-      <c r="R44" s="47" t="s">
+      <c r="Q44" s="59"/>
+      <c r="R44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="S44" s="50">
+      <c r="S44" s="27">
         <v>200</v>
       </c>
-      <c r="T44" s="50">
+      <c r="T44" s="27">
         <v>90</v>
       </c>
-      <c r="U44" s="50">
+      <c r="U44" s="27">
         <v>160</v>
       </c>
-      <c r="V44" s="50">
+      <c r="V44" s="27">
         <v>390</v>
       </c>
-      <c r="W44" s="33"/>
+      <c r="W44" s="21"/>
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
       <c r="AG45"/>
       <c r="AH45"/>
       <c r="AI45"/>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
       <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
       <c r="AG47"/>
       <c r="AH47"/>
       <c r="AI47"/>
     </row>
     <row r="48" spans="2:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q48" s="55"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="33"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="21"/>
       <c r="AG48"/>
       <c r="AH48"/>
       <c r="AI48"/>
     </row>
     <row r="49" spans="17:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q49" s="56" t="s">
+      <c r="Q49" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56" t="s">
+      <c r="R49" s="45"/>
+      <c r="S49" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
       <c r="AG49"/>
       <c r="AH49"/>
       <c r="AI49"/>
     </row>
     <row r="50" spans="17:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="25" t="s">
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T50" s="25" t="s">
+      <c r="T50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="U50" s="25" t="s">
+      <c r="U50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="V50" s="25" t="s">
+      <c r="V50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W50" s="32" t="s">
+      <c r="W50" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="X50" s="32" t="s">
+      <c r="X50" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Y50" s="35" t="s">
+      <c r="Y50" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="53"/>
+      <c r="Z50" s="21"/>
       <c r="AG50"/>
       <c r="AH50"/>
       <c r="AI50"/>
     </row>
     <row r="51" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q51" s="31" t="s">
+      <c r="Q51" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="R51" s="25" t="s">
+      <c r="R51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S51" s="73">
+      <c r="S51" s="39">
         <v>900</v>
       </c>
-      <c r="T51" s="73">
+      <c r="T51" s="39">
         <v>1820</v>
       </c>
-      <c r="U51" s="73">
+      <c r="U51" s="39">
         <v>7000</v>
       </c>
-      <c r="V51" s="73">
+      <c r="V51" s="39">
         <v>0</v>
       </c>
-      <c r="W51" s="57">
+      <c r="W51" s="30">
         <f>SUM(S51:V51)</f>
         <v>9720</v>
       </c>
-      <c r="X51" s="35" t="s">
+      <c r="X51" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Y51" s="35">
+      <c r="Y51" s="23">
         <v>9900</v>
       </c>
-      <c r="Z51" s="33"/>
+      <c r="Z51" s="21"/>
       <c r="AG51"/>
       <c r="AH51"/>
       <c r="AI51"/>
     </row>
     <row r="52" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q52" s="31"/>
-      <c r="R52" s="25" t="s">
+      <c r="Q52" s="56"/>
+      <c r="R52" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S52" s="73">
+      <c r="S52" s="39">
         <v>790</v>
       </c>
-      <c r="T52" s="73">
+      <c r="T52" s="39">
         <v>0</v>
       </c>
-      <c r="U52" s="73">
+      <c r="U52" s="39">
         <v>510</v>
       </c>
-      <c r="V52" s="73">
+      <c r="V52" s="39">
         <v>800</v>
       </c>
-      <c r="W52" s="57">
+      <c r="W52" s="30">
         <f t="shared" ref="W52:W53" si="1">SUM(S52:V52)</f>
         <v>2100</v>
       </c>
-      <c r="X52" s="35" t="s">
+      <c r="X52" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Y52" s="35">
+      <c r="Y52" s="23">
         <v>2100</v>
       </c>
-      <c r="Z52" s="33"/>
+      <c r="Z52" s="21"/>
       <c r="AG52"/>
       <c r="AH52"/>
       <c r="AI52"/>
     </row>
     <row r="53" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q53" s="31"/>
-      <c r="R53" s="25" t="s">
+      <c r="Q53" s="56"/>
+      <c r="R53" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="S53" s="73">
+      <c r="S53" s="39">
         <v>0</v>
       </c>
-      <c r="T53" s="73">
+      <c r="T53" s="39">
         <v>0</v>
       </c>
-      <c r="U53" s="73">
+      <c r="U53" s="39">
         <v>0</v>
       </c>
-      <c r="V53" s="73">
+      <c r="V53" s="39">
         <v>4200</v>
       </c>
-      <c r="W53" s="57">
+      <c r="W53" s="30">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="X53" s="35" t="s">
+      <c r="X53" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Y53" s="35">
+      <c r="Y53" s="23">
         <v>4200</v>
       </c>
-      <c r="Z53" s="33"/>
+      <c r="Z53" s="21"/>
       <c r="AG53"/>
       <c r="AH53"/>
       <c r="AI53"/>
     </row>
     <row r="54" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q54" s="35"/>
+      <c r="Q54" s="23"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="65">
+      <c r="S54" s="34">
         <f>SUM(S51:S53)</f>
         <v>1690</v>
       </c>
-      <c r="T54" s="65">
+      <c r="T54" s="34">
         <f t="shared" ref="T54:V54" si="2">SUM(T51:T53)</f>
         <v>1820</v>
       </c>
-      <c r="U54" s="65">
+      <c r="U54" s="34">
         <f t="shared" si="2"/>
         <v>7510</v>
       </c>
-      <c r="V54" s="65">
+      <c r="V54" s="34">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="33"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="21"/>
       <c r="AG54"/>
       <c r="AH54"/>
       <c r="AI54"/>
     </row>
     <row r="55" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q55" s="17" t="s">
+      <c r="Q55" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="R55" s="17"/>
-      <c r="S55" s="66" t="s">
+      <c r="R55" s="40"/>
+      <c r="S55" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="T55" s="66" t="s">
+      <c r="T55" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="U55" s="66" t="s">
+      <c r="U55" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="V55" s="66" t="s">
+      <c r="V55" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
       <c r="AG55"/>
       <c r="AH55"/>
       <c r="AI55"/>
@@ -14207,578 +13847,578 @@
     <row r="56" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="67">
+      <c r="S56" s="36">
         <f>SUM(S57:S69)</f>
         <v>1690</v>
       </c>
-      <c r="T56" s="67">
+      <c r="T56" s="36">
         <f t="shared" ref="T56:V56" si="3">SUM(T57:T69)</f>
         <v>1820</v>
       </c>
-      <c r="U56" s="67">
+      <c r="U56" s="36">
         <f t="shared" si="3"/>
         <v>7510</v>
       </c>
-      <c r="V56" s="67">
+      <c r="V56" s="36">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="Z56" s="33"/>
+      <c r="Z56" s="21"/>
       <c r="AG56"/>
       <c r="AH56"/>
       <c r="AI56"/>
     </row>
     <row r="57" spans="17:35" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q57" s="48" t="s">
+      <c r="Q57" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="R57" s="47" t="s">
+      <c r="R57" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S57" s="68">
+      <c r="S57" s="37">
         <v>650</v>
       </c>
-      <c r="T57" s="68">
+      <c r="T57" s="37">
         <v>0</v>
       </c>
-      <c r="U57" s="68">
+      <c r="U57" s="37">
         <v>0</v>
       </c>
-      <c r="V57" s="68">
+      <c r="V57" s="37">
         <v>0</v>
       </c>
-      <c r="W57" s="52">
+      <c r="W57" s="28">
         <f>SUM(S57:V57)</f>
         <v>650</v>
       </c>
-      <c r="X57" s="35" t="s">
+      <c r="X57" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y57" s="51">
+      <c r="Y57" s="20">
         <v>650</v>
       </c>
-      <c r="Z57" s="33"/>
+      <c r="Z57" s="21"/>
       <c r="AG57"/>
       <c r="AH57"/>
       <c r="AI57"/>
     </row>
     <row r="58" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q58" s="43"/>
-      <c r="R58" s="47" t="s">
+      <c r="Q58" s="58"/>
+      <c r="R58" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="S58" s="68">
+      <c r="S58" s="37">
         <v>260</v>
       </c>
-      <c r="T58" s="68">
+      <c r="T58" s="37">
         <v>0</v>
       </c>
-      <c r="U58" s="68">
+      <c r="U58" s="37">
         <v>0</v>
       </c>
-      <c r="V58" s="68">
+      <c r="V58" s="37">
         <v>0</v>
       </c>
-      <c r="W58" s="52">
+      <c r="W58" s="28">
         <f t="shared" ref="W58:W69" si="4">SUM(S58:V58)</f>
         <v>260</v>
       </c>
-      <c r="X58" s="35" t="s">
+      <c r="X58" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y58" s="51">
+      <c r="Y58" s="20">
         <v>260</v>
       </c>
-      <c r="Z58" s="33"/>
+      <c r="Z58" s="21"/>
       <c r="AG58"/>
       <c r="AH58"/>
       <c r="AI58"/>
     </row>
     <row r="59" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q59" s="43"/>
-      <c r="R59" s="47" t="s">
+      <c r="Q59" s="58"/>
+      <c r="R59" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S59" s="68">
+      <c r="S59" s="37">
         <v>650</v>
       </c>
-      <c r="T59" s="68">
+      <c r="T59" s="37">
         <v>0</v>
       </c>
-      <c r="U59" s="68">
+      <c r="U59" s="37">
         <v>0</v>
       </c>
-      <c r="V59" s="68">
+      <c r="V59" s="37">
         <v>0</v>
       </c>
-      <c r="W59" s="52">
+      <c r="W59" s="28">
         <f t="shared" si="4"/>
         <v>650</v>
       </c>
-      <c r="X59" s="35" t="s">
+      <c r="X59" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y59" s="51">
+      <c r="Y59" s="20">
         <v>650</v>
       </c>
-      <c r="Z59" s="33"/>
+      <c r="Z59" s="21"/>
       <c r="AG59"/>
       <c r="AH59"/>
       <c r="AI59"/>
     </row>
     <row r="60" spans="17:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q60" s="43"/>
-      <c r="R60" s="47" t="s">
+      <c r="Q60" s="58"/>
+      <c r="R60" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="S60" s="68">
+      <c r="S60" s="37">
         <v>130</v>
       </c>
-      <c r="T60" s="68">
+      <c r="T60" s="37">
         <v>0</v>
       </c>
-      <c r="U60" s="68">
+      <c r="U60" s="37">
         <v>0</v>
       </c>
-      <c r="V60" s="68">
+      <c r="V60" s="37">
         <v>0</v>
       </c>
-      <c r="W60" s="52">
+      <c r="W60" s="28">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="X60" s="35" t="s">
+      <c r="X60" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y60" s="51">
+      <c r="Y60" s="20">
         <v>130</v>
       </c>
-      <c r="Z60" s="33"/>
+      <c r="Z60" s="21"/>
       <c r="AG60"/>
       <c r="AH60"/>
       <c r="AI60"/>
     </row>
     <row r="61" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q61" s="43"/>
-      <c r="R61" s="47" t="s">
+      <c r="Q61" s="58"/>
+      <c r="R61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="68">
+      <c r="S61" s="37">
         <v>0</v>
       </c>
-      <c r="T61" s="68">
+      <c r="T61" s="37">
         <v>0</v>
       </c>
-      <c r="U61" s="68">
+      <c r="U61" s="37">
         <v>780</v>
       </c>
-      <c r="V61" s="68">
+      <c r="V61" s="37">
         <v>0</v>
       </c>
-      <c r="W61" s="52">
+      <c r="W61" s="28">
         <f t="shared" si="4"/>
         <v>780</v>
       </c>
-      <c r="X61" s="35" t="s">
+      <c r="X61" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y61" s="51">
+      <c r="Y61" s="20">
         <v>780</v>
       </c>
-      <c r="Z61" s="33"/>
+      <c r="Z61" s="21"/>
       <c r="AG61"/>
       <c r="AH61"/>
       <c r="AI61"/>
     </row>
     <row r="62" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q62" s="43"/>
-      <c r="R62" s="47" t="s">
+      <c r="Q62" s="58"/>
+      <c r="R62" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="S62" s="68">
+      <c r="S62" s="37">
         <v>0</v>
       </c>
-      <c r="T62" s="68">
+      <c r="T62" s="37">
         <v>0</v>
       </c>
-      <c r="U62" s="68">
+      <c r="U62" s="37">
         <v>0</v>
       </c>
-      <c r="V62" s="68">
+      <c r="V62" s="37">
         <v>2500</v>
       </c>
-      <c r="W62" s="52">
+      <c r="W62" s="28">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="X62" s="35" t="s">
+      <c r="X62" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y62" s="51">
+      <c r="Y62" s="20">
         <v>2500</v>
       </c>
-      <c r="Z62" s="33"/>
+      <c r="Z62" s="21"/>
       <c r="AG62"/>
       <c r="AH62"/>
       <c r="AI62"/>
     </row>
     <row r="63" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q63" s="43"/>
-      <c r="R63" s="47" t="s">
+      <c r="Q63" s="58"/>
+      <c r="R63" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S63" s="68">
+      <c r="S63" s="37">
         <v>0</v>
       </c>
-      <c r="T63" s="68">
+      <c r="T63" s="37">
         <v>0</v>
       </c>
-      <c r="U63" s="68">
+      <c r="U63" s="37">
         <v>0</v>
       </c>
-      <c r="V63" s="68">
+      <c r="V63" s="37">
         <v>910</v>
       </c>
-      <c r="W63" s="52">
+      <c r="W63" s="28">
         <f t="shared" si="4"/>
         <v>910</v>
       </c>
-      <c r="X63" s="35" t="s">
+      <c r="X63" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y63" s="51">
+      <c r="Y63" s="20">
         <v>910</v>
       </c>
-      <c r="Z63" s="33"/>
+      <c r="Z63" s="21"/>
       <c r="AG63"/>
       <c r="AH63"/>
       <c r="AI63"/>
     </row>
     <row r="64" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q64" s="43"/>
-      <c r="R64" s="47" t="s">
+      <c r="Q64" s="58"/>
+      <c r="R64" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="S64" s="68">
+      <c r="S64" s="37">
         <v>0</v>
       </c>
-      <c r="T64" s="68">
+      <c r="T64" s="37">
         <v>0</v>
       </c>
-      <c r="U64" s="68">
+      <c r="U64" s="37">
         <v>1530</v>
       </c>
-      <c r="V64" s="68">
+      <c r="V64" s="37">
         <v>1590</v>
       </c>
-      <c r="W64" s="52">
+      <c r="W64" s="28">
         <f t="shared" si="4"/>
         <v>3120</v>
       </c>
-      <c r="X64" s="35" t="s">
+      <c r="X64" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y64" s="51">
+      <c r="Y64" s="20">
         <v>3120</v>
       </c>
-      <c r="Z64" s="33"/>
+      <c r="Z64" s="21"/>
       <c r="AG64"/>
       <c r="AH64"/>
       <c r="AI64"/>
     </row>
     <row r="65" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q65" s="43"/>
-      <c r="R65" s="47" t="s">
+      <c r="Q65" s="58"/>
+      <c r="R65" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="S65" s="68">
+      <c r="S65" s="37">
         <v>0</v>
       </c>
-      <c r="T65" s="68">
+      <c r="T65" s="37">
         <v>0</v>
       </c>
-      <c r="U65" s="68">
+      <c r="U65" s="37">
         <v>910</v>
       </c>
-      <c r="V65" s="68">
+      <c r="V65" s="37">
         <v>0</v>
       </c>
-      <c r="W65" s="52">
+      <c r="W65" s="28">
         <f t="shared" si="4"/>
         <v>910</v>
       </c>
-      <c r="X65" s="35" t="s">
+      <c r="X65" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y65" s="51">
+      <c r="Y65" s="20">
         <v>910</v>
       </c>
-      <c r="Z65" s="33"/>
+      <c r="Z65" s="21"/>
       <c r="AG65"/>
       <c r="AH65"/>
       <c r="AI65"/>
     </row>
     <row r="66" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q66" s="43"/>
-      <c r="R66" s="47" t="s">
+      <c r="Q66" s="58"/>
+      <c r="R66" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S66" s="68">
+      <c r="S66" s="37">
         <v>0</v>
       </c>
-      <c r="T66" s="68">
+      <c r="T66" s="37">
         <v>0</v>
       </c>
-      <c r="U66" s="68">
+      <c r="U66" s="37">
         <v>3640</v>
       </c>
-      <c r="V66" s="68">
+      <c r="V66" s="37">
         <v>0</v>
       </c>
-      <c r="W66" s="52">
+      <c r="W66" s="28">
         <f t="shared" si="4"/>
         <v>3640</v>
       </c>
-      <c r="X66" s="35" t="s">
+      <c r="X66" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y66" s="51">
+      <c r="Y66" s="20">
         <v>3640</v>
       </c>
-      <c r="Z66" s="33"/>
+      <c r="Z66" s="21"/>
       <c r="AG66"/>
       <c r="AH66"/>
       <c r="AI66"/>
     </row>
     <row r="67" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q67" s="43"/>
-      <c r="R67" s="47" t="s">
+      <c r="Q67" s="58"/>
+      <c r="R67" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="68">
+      <c r="S67" s="37">
         <v>0</v>
       </c>
-      <c r="T67" s="68">
+      <c r="T67" s="37">
         <v>1040</v>
       </c>
-      <c r="U67" s="68">
+      <c r="U67" s="37">
         <v>0</v>
       </c>
-      <c r="V67" s="68">
+      <c r="V67" s="37">
         <v>0</v>
       </c>
-      <c r="W67" s="52">
+      <c r="W67" s="28">
         <f t="shared" si="4"/>
         <v>1040</v>
       </c>
-      <c r="X67" s="35" t="s">
+      <c r="X67" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y67" s="51">
+      <c r="Y67" s="20">
         <v>1040</v>
       </c>
-      <c r="Z67" s="33"/>
+      <c r="Z67" s="21"/>
       <c r="AG67"/>
       <c r="AH67"/>
       <c r="AI67"/>
     </row>
     <row r="68" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q68" s="43"/>
-      <c r="R68" s="47" t="s">
+      <c r="Q68" s="58"/>
+      <c r="R68" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="S68" s="68">
+      <c r="S68" s="37">
         <v>0</v>
       </c>
-      <c r="T68" s="68">
+      <c r="T68" s="37">
         <v>0</v>
       </c>
-      <c r="U68" s="68">
+      <c r="U68" s="37">
         <v>650</v>
       </c>
-      <c r="V68" s="68">
+      <c r="V68" s="37">
         <v>0</v>
       </c>
-      <c r="W68" s="52">
+      <c r="W68" s="28">
         <f t="shared" si="4"/>
         <v>650</v>
       </c>
-      <c r="X68" s="35" t="s">
+      <c r="X68" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y68" s="51">
+      <c r="Y68" s="20">
         <v>650</v>
       </c>
-      <c r="Z68" s="33"/>
+      <c r="Z68" s="21"/>
       <c r="AG68"/>
       <c r="AH68"/>
       <c r="AI68"/>
     </row>
     <row r="69" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q69" s="49"/>
-      <c r="R69" s="47" t="s">
+      <c r="Q69" s="59"/>
+      <c r="R69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="S69" s="68">
+      <c r="S69" s="37">
         <v>0</v>
       </c>
-      <c r="T69" s="68">
+      <c r="T69" s="37">
         <v>780</v>
       </c>
-      <c r="U69" s="68">
+      <c r="U69" s="37">
         <v>0</v>
       </c>
-      <c r="V69" s="68">
+      <c r="V69" s="37">
         <v>0</v>
       </c>
-      <c r="W69" s="52">
+      <c r="W69" s="28">
         <f t="shared" si="4"/>
         <v>780</v>
       </c>
-      <c r="X69" s="35" t="s">
+      <c r="X69" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y69" s="51">
+      <c r="Y69" s="20">
         <v>780</v>
       </c>
-      <c r="Z69" s="33"/>
+      <c r="Z69" s="21"/>
       <c r="AG69"/>
       <c r="AH69"/>
       <c r="AI69"/>
     </row>
     <row r="70" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q70" s="40" t="s">
+      <c r="Q70" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="R70" s="41"/>
-      <c r="S70" s="69" t="s">
+      <c r="R70" s="50"/>
+      <c r="S70" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="T70" s="69" t="s">
+      <c r="T70" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="U70" s="69" t="s">
+      <c r="U70" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="V70" s="69" t="s">
+      <c r="V70" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="W70" s="35" t="s">
+      <c r="W70" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="X70" s="35" t="s">
+      <c r="X70" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="Y70" s="35" t="s">
+      <c r="Y70" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Z70" s="33"/>
+      <c r="Z70" s="21"/>
       <c r="AG70"/>
       <c r="AH70"/>
       <c r="AI70"/>
     </row>
     <row r="71" spans="17:35" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q71" s="45"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="70" t="s">
+      <c r="Q71" s="51"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="72"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="55"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
       <c r="AG71"/>
       <c r="AH71"/>
       <c r="AI71"/>
     </row>
     <row r="72" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="W72" s="64" t="s">
+      <c r="W72" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="Z72" s="33"/>
+      <c r="Z72" s="21"/>
       <c r="AG72"/>
       <c r="AH72"/>
       <c r="AI72"/>
     </row>
     <row r="73" spans="17:35" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q73" s="17" t="s">
+      <c r="Q73" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="R73" s="17"/>
-      <c r="W73" s="62">
+      <c r="R73" s="40"/>
+      <c r="W73" s="31">
         <f>SUMPRODUCT(S24:V26,S51:V53) + SUMPRODUCT(S32:V44, S57:V69)</f>
         <v>3490420</v>
       </c>
-      <c r="Z73" s="33"/>
+      <c r="Z73" s="21"/>
       <c r="AG73"/>
       <c r="AH73"/>
       <c r="AI73"/>
     </row>
     <row r="74" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q74" s="17" t="s">
+      <c r="Q74" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="R74" s="17"/>
-      <c r="Z74" s="33"/>
+      <c r="R74" s="40"/>
+      <c r="Z74" s="21"/>
       <c r="AG74"/>
       <c r="AH74"/>
       <c r="AI74"/>
     </row>
     <row r="75" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33"/>
-      <c r="S75" s="33"/>
-      <c r="T75" s="33"/>
-      <c r="U75" s="33"/>
-      <c r="V75" s="33"/>
-      <c r="W75" s="33"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="33"/>
-      <c r="Z75" s="33"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
       <c r="AG75"/>
       <c r="AH75"/>
       <c r="AI75"/>
     </row>
     <row r="76" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q76" s="33"/>
-      <c r="R76" s="33"/>
-      <c r="W76" s="33"/>
-      <c r="X76" s="33"/>
-      <c r="Y76" s="33"/>
-      <c r="Z76" s="33"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
       <c r="AG76"/>
       <c r="AH76"/>
       <c r="AI76"/>
     </row>
     <row r="77" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="33"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="33"/>
-      <c r="W77" s="33"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="33"/>
-      <c r="Z77" s="33"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="21"/>
+      <c r="X77" s="21"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
       <c r="AG77"/>
       <c r="AH77"/>
       <c r="AI77"/>
     </row>
     <row r="78" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q78" s="33"/>
-      <c r="R78" s="33"/>
-      <c r="S78" s="33"/>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="33"/>
-      <c r="W78" s="33"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="33"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
       <c r="AG78"/>
       <c r="AH78"/>
       <c r="AI78"/>
@@ -14840,6 +14480,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="X22:X24"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="Q32:Q44"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="X30:X42"/>
+    <mergeCell ref="X29:Z29"/>
     <mergeCell ref="Q73:R73"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="Q22:R23"/>
@@ -14852,13 +14499,6 @@
     <mergeCell ref="S49:V49"/>
     <mergeCell ref="Q55:R55"/>
     <mergeCell ref="Q57:Q69"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="X22:X24"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="Q32:Q44"/>
-    <mergeCell ref="Q30:R31"/>
-    <mergeCell ref="X30:X42"/>
-    <mergeCell ref="X29:Z29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
